--- a/Fisheries/Fisheries.xlsx
+++ b/Fisheries/Fisheries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlaleone/Desktop/Exeter/Fisheries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD1F92-E355-EA46-9A3E-1BA8A5AD3A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532F61A-6EDA-B947-B743-FADD9FF7E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="2" activeTab="5" xr2:uid="{07497000-BD50-6443-8FB5-C721D9BC065F}"/>
   </bookViews>
@@ -17809,161 +17809,116 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35EF5A0-2951-6D41-BFAF-7A6804BB372F}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="B1" sqref="B1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>116</v>
       </c>
       <c r="B1">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E1">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G1">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="H1">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="I1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="J1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="K1">
-        <v>2018</v>
-      </c>
-      <c r="L1">
-        <v>2019</v>
-      </c>
-      <c r="M1">
-        <v>2020</v>
-      </c>
-      <c r="N1">
-        <v>2021</v>
-      </c>
-      <c r="O1">
-        <v>2022</v>
-      </c>
-      <c r="P1">
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="177">
-        <v>785.67857139140062</v>
+        <v>928.37688459369997</v>
       </c>
       <c r="C2" s="177">
-        <v>827.37738979537801</v>
+        <v>835.10268893869977</v>
       </c>
       <c r="D2" s="177">
-        <v>937.33264814282586</v>
+        <v>1046.9857301541363</v>
       </c>
       <c r="E2" s="177">
-        <v>858.19700842068983</v>
+        <v>1087.3267147720283</v>
       </c>
       <c r="F2" s="177">
-        <v>827.95650277720574</v>
+        <v>1098.0439383842088</v>
       </c>
       <c r="G2" s="177">
-        <v>928.37688459369997</v>
+        <v>1168.3915416829361</v>
       </c>
       <c r="H2" s="177">
-        <v>835.10268893869977</v>
+        <v>915.7448503173722</v>
       </c>
       <c r="I2" s="177">
-        <v>1046.9857301541363</v>
+        <v>1050.6481471019144</v>
       </c>
       <c r="J2" s="177">
-        <v>1087.3267147720283</v>
+        <v>1194.5237937655736</v>
       </c>
       <c r="K2" s="177">
-        <v>1098.0439383842088</v>
-      </c>
-      <c r="L2" s="177">
-        <v>1168.3915416829361</v>
-      </c>
-      <c r="M2" s="177">
-        <v>915.7448503173722</v>
-      </c>
-      <c r="N2" s="177">
-        <v>1050.6481471019144</v>
-      </c>
-      <c r="O2" s="177">
-        <v>1194.5237937655736</v>
-      </c>
-      <c r="P2" s="177">
         <v>1231.3208478849297</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="177">
-        <v>393.42486400000013</v>
+        <v>449.15647059999986</v>
       </c>
       <c r="C3" s="177">
-        <v>408.29298139999992</v>
+        <v>415.95173549999998</v>
       </c>
       <c r="D3" s="177">
-        <v>400.12264429999999</v>
+        <v>444.38999190000015</v>
       </c>
       <c r="E3" s="177">
-        <v>393.79796019999992</v>
+        <v>433.74892149999999</v>
       </c>
       <c r="F3" s="177">
-        <v>404.64696000000004</v>
+        <v>425.99776420000001</v>
       </c>
       <c r="G3" s="177">
-        <v>449.15647059999986</v>
+        <v>393.74959581082032</v>
       </c>
       <c r="H3" s="177">
-        <v>415.95173549999998</v>
+        <v>380.2616938508412</v>
       </c>
       <c r="I3" s="177">
-        <v>444.38999190000015</v>
+        <v>395.11400356937679</v>
       </c>
       <c r="J3" s="177">
-        <v>433.74892149999999</v>
+        <v>398.19193768409707</v>
       </c>
       <c r="K3" s="177">
-        <v>425.99776420000001</v>
-      </c>
-      <c r="L3" s="177">
-        <v>393.74959581082032</v>
-      </c>
-      <c r="M3" s="177">
-        <v>380.2616938508412</v>
-      </c>
-      <c r="N3" s="177">
-        <v>395.11400356937679</v>
-      </c>
-      <c r="O3" s="177">
-        <v>398.19193768409707</v>
-      </c>
-      <c r="P3" s="177">
         <v>440.53138674432535</v>
       </c>
     </row>

--- a/Fisheries/Fisheries.xlsx
+++ b/Fisheries/Fisheries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlaleone/Desktop/Exeter/Fisheries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532F61A-6EDA-B947-B743-FADD9FF7E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63B5F53-25CD-C64E-B5B8-37F8C549EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="2" activeTab="5" xr2:uid="{07497000-BD50-6443-8FB5-C721D9BC065F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="2" activeTab="4" xr2:uid="{07497000-BD50-6443-8FB5-C721D9BC065F}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Value" sheetId="13" r:id="rId1"/>
@@ -1543,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AC6F4C-D30F-DF4A-84A6-D62647040C43}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:P44"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2351,7 +2351,7 @@
         <v>17.883876766557563</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>3.9811028897999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>6.2327460475307399</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>36.113557174869172</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>8.8104264016656391</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>18.738675662866857</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1.1258287092567612</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>29.308531829515168</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>429.83553445895006</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>10.070873287563201</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>43.568628115810711</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0.66396589701580255</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2950,8 +2950,16 @@
       <c r="P28" s="177">
         <v>201.68746372075208</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="R28">
+        <f>((P28-G28)/G28)*100</f>
+        <v>28.330983856757204</v>
+      </c>
+      <c r="S28">
+        <f>G28*1.283</f>
+        <v>201.63876889041691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>4.4907042742758003</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>0.66686391323619998</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>261.14849920865385</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6217,10 +6225,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A5893-199B-2948-9744-2984649A120F}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:P44"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7025,7 +7033,7 @@
         <v>9.5080807800001548</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:19">
       <c r="A17" s="93" t="s">
         <v>18</v>
       </c>
@@ -7075,7 +7083,7 @@
         <v>8.5479999999999996E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:19">
       <c r="A18" s="93" t="s">
         <v>19</v>
       </c>
@@ -7125,7 +7133,7 @@
         <v>2.7269163920080839</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:19">
       <c r="A19" s="93" t="s">
         <v>20</v>
       </c>
@@ -7175,7 +7183,7 @@
         <v>1.6218717000137139</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:19">
       <c r="A20" s="93" t="s">
         <v>21</v>
       </c>
@@ -7225,7 +7233,7 @@
         <v>0.40236944200235031</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:19">
       <c r="A21" s="93" t="s">
         <v>22</v>
       </c>
@@ -7275,7 +7283,7 @@
         <v>12.280845450000919</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:19">
       <c r="A22" s="93" t="s">
         <v>23</v>
       </c>
@@ -7325,7 +7333,7 @@
         <v>0.70467764000007305</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:19">
       <c r="A23" s="85" t="s">
         <v>56</v>
       </c>
@@ -7375,7 +7383,7 @@
         <v>5.9612086290031288</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:19">
       <c r="A24" s="97" t="s">
         <v>25</v>
       </c>
@@ -7425,7 +7433,7 @@
         <v>128.38383882427257</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:19">
       <c r="A25" s="93" t="s">
         <v>26</v>
       </c>
@@ -7475,7 +7483,7 @@
         <v>26.8770442</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:19">
       <c r="A26" s="93" t="s">
         <v>27</v>
       </c>
@@ -7525,7 +7533,7 @@
         <v>45.405696499999998</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:19">
       <c r="A27" s="93" t="s">
         <v>28</v>
       </c>
@@ -7575,7 +7583,7 @@
         <v>0.64717800000000225</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:19">
       <c r="A28" s="93" t="s">
         <v>29</v>
       </c>
@@ -7624,8 +7632,12 @@
       <c r="P28" s="7">
         <v>107.6580944</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="S28">
+        <f>((G28-P28)/G28)*100</f>
+        <v>14.673884602860293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="93" t="s">
         <v>30</v>
       </c>
@@ -7675,7 +7687,7 @@
         <v>8.4491595000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:19">
       <c r="A30" s="85" t="s">
         <v>31</v>
       </c>
@@ -7725,7 +7737,7 @@
         <v>0.5975916</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:19">
       <c r="A31" s="97" t="s">
         <v>32</v>
       </c>
@@ -7775,7 +7787,7 @@
         <v>189.63476420000001</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:19">
       <c r="A32" s="93" t="s">
         <v>33</v>
       </c>
@@ -15773,7 +15785,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection sqref="A1:N12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17142,8 +17154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CBB3C8-6CD7-8142-9B6C-C07F765CBF57}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17645,10 +17657,19 @@
     <row r="13" spans="1:19" ht="17" thickBot="1">
       <c r="A13" s="36"/>
       <c r="B13" s="173"/>
-      <c r="C13" s="36"/>
+      <c r="C13" s="36">
+        <f>((C11-C2)/C2)*100</f>
+        <v>3.017832647462277</v>
+      </c>
       <c r="D13" s="173"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="173"/>
+      <c r="E13" s="36">
+        <f>((E11-E2)/E2)*100</f>
+        <v>12.995156871888508</v>
+      </c>
+      <c r="F13" s="36">
+        <f>((F2-F11)/F11)*100</f>
+        <v>5.834796910770959</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -17683,6 +17704,12 @@
       <c r="Q14" s="68"/>
       <c r="R14" s="172"/>
       <c r="S14" s="68"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="F15">
+        <f>1.13*E2</f>
+        <v>122058.91620000005</v>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="17" thickBot="1"/>
     <row r="18" spans="1:23" ht="17" thickBot="1">
@@ -17811,8 +17838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35EF5A0-2951-6D41-BFAF-7A6804BB372F}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Fisheries/Fisheries.xlsx
+++ b/Fisheries/Fisheries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlaleone/Desktop/Exeter/Fisheries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63B5F53-25CD-C64E-B5B8-37F8C549EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8546BF37-D4D8-1F41-BEF6-32945D51852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="2" activeTab="4" xr2:uid="{07497000-BD50-6443-8FB5-C721D9BC065F}"/>
+    <workbookView minimized="1" xWindow="29940" yWindow="500" windowWidth="35620" windowHeight="19940" activeTab="10" xr2:uid="{07497000-BD50-6443-8FB5-C721D9BC065F}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Value" sheetId="13" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="122">
   <si>
     <r>
       <t>TABLE 2.2  Landings into the UK by UK vessels: 2019 to 2023</t>
@@ -462,6 +462,21 @@
   <si>
     <t>n</t>
   </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min </t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
 </sst>
 </file>
 
@@ -781,7 +796,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1199,6 +1214,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,15 +1559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AC6F4C-D30F-DF4A-84A6-D62647040C43}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1600,8 +1616,20 @@
       <c r="P1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="R1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1679,7 @@
         <v>9.8069098728069353</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1701,7 +1729,7 @@
         <v>3.8207320448387434</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1750,8 +1778,34 @@
       <c r="P4" s="177">
         <v>76.849455655120906</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="R4" s="177">
+        <f>MAX(B4:P4)</f>
+        <v>90.19629823934352</v>
+      </c>
+      <c r="S4" s="177">
+        <v>2019</v>
+      </c>
+      <c r="U4" s="177">
+        <f>MIN(G4:P4)</f>
+        <v>42.033122006400021</v>
+      </c>
+      <c r="V4">
+        <v>2014</v>
+      </c>
+      <c r="X4" s="177">
+        <f>((P4-G4)/G4)*100</f>
+        <v>82.830710608219164</v>
+      </c>
+      <c r="Y4" s="177">
+        <f>P4-G4</f>
+        <v>34.816333648720885</v>
+      </c>
+      <c r="Z4">
+        <f>Y4/G4</f>
+        <v>0.8283071060821916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1800,8 +1854,12 @@
       <c r="P5" s="177">
         <v>1.1470788597257215</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="X5" s="177">
+        <f t="shared" ref="X5:X35" si="0">((P5-G5)/G5)*100</f>
+        <v>493.45487029115515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1850,8 +1908,12 @@
       <c r="P6" s="177">
         <v>2.7176013753413164</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="X6" s="177">
+        <f t="shared" si="0"/>
+        <v>106.9413515613254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1900,8 +1962,12 @@
       <c r="P7" s="177">
         <v>65.510133053076729</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="X7" s="177">
+        <f t="shared" si="0"/>
+        <v>-12.079727833328491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1950,8 +2016,12 @@
       <c r="P8" s="177">
         <v>29.28656221447617</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="X8" s="177">
+        <f t="shared" si="0"/>
+        <v>-1.5223474570891637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2000,8 +2070,12 @@
       <c r="P9" s="177">
         <v>2.3135785890915401</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="X9" s="177">
+        <f t="shared" si="0"/>
+        <v>337.72878409135399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2050,8 +2124,12 @@
       <c r="P10" s="177">
         <v>8.2029094477227247</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="X10" s="177">
+        <f t="shared" si="0"/>
+        <v>-31.226637811043982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2100,8 +2178,12 @@
       <c r="P11" s="177">
         <v>15.735669614636969</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="X11" s="177">
+        <f t="shared" si="0"/>
+        <v>93.683523683901129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2150,8 +2232,12 @@
       <c r="P12" s="177">
         <v>11.762432578326141</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="X12" s="177">
+        <f t="shared" si="0"/>
+        <v>-9.8858986565463152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2200,8 +2286,12 @@
       <c r="P13" s="177">
         <v>70.835781506059647</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="X13" s="177">
+        <f t="shared" si="0"/>
+        <v>49.184047522567823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2250,8 +2340,12 @@
       <c r="P14" s="177">
         <v>7.6344021240014355</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="X14" s="177">
+        <f t="shared" si="0"/>
+        <v>41.552741782082258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2300,8 +2394,12 @@
       <c r="P15" s="177">
         <v>5.9946638285732936</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="X15" s="177">
+        <f t="shared" si="0"/>
+        <v>16.125293776470457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2350,8 +2448,12 @@
       <c r="P16" s="177">
         <v>17.883876766557563</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="X16" s="177">
+        <f t="shared" si="0"/>
+        <v>16.345541298147989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2400,8 +2502,12 @@
       <c r="P17" s="177">
         <v>3.9811028897999996E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="X17" s="177">
+        <f t="shared" si="0"/>
+        <v>-92.080373474682503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2450,8 +2556,12 @@
       <c r="P18" s="177">
         <v>6.2327460475307399</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="X18" s="177">
+        <f t="shared" si="0"/>
+        <v>52.466291446790002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2610,26 @@
       <c r="P19" s="177">
         <v>36.113557174869172</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="R19" s="177">
+        <f>MAX(B19:P19)</f>
+        <v>41.35257946974734</v>
+      </c>
+      <c r="S19" s="177">
+        <v>2022</v>
+      </c>
+      <c r="U19" s="177">
+        <f>MIN(G19:P19)</f>
+        <v>15.6427878767</v>
+      </c>
+      <c r="V19">
+        <v>2015</v>
+      </c>
+      <c r="X19" s="177">
+        <f t="shared" si="0"/>
+        <v>93.060528925742929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2550,8 +2678,12 @@
       <c r="P20" s="177">
         <v>8.8104264016656391</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="X20" s="177">
+        <f t="shared" si="0"/>
+        <v>39.066152778545977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2600,8 +2732,12 @@
       <c r="P21" s="177">
         <v>18.738675662866857</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="X21" s="177">
+        <f t="shared" si="0"/>
+        <v>4.9853720638985282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2650,8 +2786,12 @@
       <c r="P22" s="177">
         <v>1.1258287092567612</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="X22" s="177">
+        <f t="shared" si="0"/>
+        <v>1.950169233056781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2700,8 +2840,12 @@
       <c r="P23" s="177">
         <v>29.308531829515168</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="X23" s="177">
+        <f t="shared" si="0"/>
+        <v>240.55880590019279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2750,8 +2894,12 @@
       <c r="P24" s="177">
         <v>429.83553445895006</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="X24" s="177">
+        <f t="shared" si="0"/>
+        <v>32.234501767792253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2800,8 +2948,12 @@
       <c r="P25" s="177">
         <v>10.070873287563201</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="X25" s="177">
+        <f t="shared" si="0"/>
+        <v>426.94021751886788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2850,8 +3002,12 @@
       <c r="P26" s="177">
         <v>43.568628115810711</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="X26" s="177">
+        <f t="shared" si="0"/>
+        <v>174.03212220772016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2900,8 +3056,12 @@
       <c r="P27" s="177">
         <v>0.66396589701580255</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="X27" s="177">
+        <f t="shared" si="0"/>
+        <v>-61.695088060590606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2950,16 +3110,26 @@
       <c r="P28" s="177">
         <v>201.68746372075208</v>
       </c>
-      <c r="R28">
-        <f>((P28-G28)/G28)*100</f>
+      <c r="R28" s="177">
+        <f>MAX(B28:P28)</f>
+        <v>201.68746372075208</v>
+      </c>
+      <c r="S28" s="177">
+        <v>2023</v>
+      </c>
+      <c r="U28" s="177">
+        <f>MIN(G28:P28)</f>
+        <v>91.472415350100064</v>
+      </c>
+      <c r="V28">
+        <v>2015</v>
+      </c>
+      <c r="X28" s="177">
+        <f t="shared" si="0"/>
         <v>28.330983856757204</v>
       </c>
-      <c r="S28">
-        <f>G28*1.283</f>
-        <v>201.63876889041691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3008,8 +3178,12 @@
       <c r="P29" s="177">
         <v>4.4907042742758003</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="X29" s="177">
+        <f t="shared" si="0"/>
+        <v>268.31341771625165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3058,8 +3232,12 @@
       <c r="P30" s="177">
         <v>0.66686391323619998</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="X30" s="177">
+        <f t="shared" si="0"/>
+        <v>-79.149117520298105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3108,8 +3286,12 @@
       <c r="P31" s="177">
         <v>261.14849920865385</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="X31" s="177">
+        <f t="shared" si="0"/>
+        <v>44.182864108988539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3158,8 +3340,12 @@
       <c r="P32" s="177">
         <v>9.7924908424866999</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="X32" s="177">
+        <f t="shared" si="0"/>
+        <v>-17.675005053107842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -3208,8 +3394,12 @@
       <c r="P33" s="177">
         <v>83.431710211398212</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="X33" s="177">
+        <f t="shared" si="0"/>
+        <v>24.555540167259139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3258,8 +3448,26 @@
       <c r="P34" s="177">
         <v>26.259314389672106</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="R34" s="177">
+        <f>MAX(B34:P34)</f>
+        <v>38.455938106800012</v>
+      </c>
+      <c r="S34" s="177">
+        <v>2017</v>
+      </c>
+      <c r="U34" s="177">
+        <f>MIN(G34:P34)</f>
+        <v>9.8123053446000021</v>
+      </c>
+      <c r="V34">
+        <v>2014</v>
+      </c>
+      <c r="X34" s="177">
+        <f t="shared" si="0"/>
+        <v>167.61615611690451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3308,8 +3516,26 @@
       <c r="P35" s="177">
         <v>79.518121002992913</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="R35" s="177">
+        <f>MAX(B35:P35)</f>
+        <v>80.508193561718869</v>
+      </c>
+      <c r="S35" s="177">
+        <v>2022</v>
+      </c>
+      <c r="U35" s="177">
+        <f>MIN(G35:P35)</f>
+        <v>48.624812178699891</v>
+      </c>
+      <c r="V35">
+        <v>2015</v>
+      </c>
+      <c r="X35" s="177">
+        <f t="shared" si="0"/>
+        <v>57.278840359518476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3359,7 +3585,7 @@
         <v>0.69388184399999997</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3409,7 +3635,7 @@
         <v>174.64932934641482</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3459,7 +3685,7 @@
         <v>95.96638630524393</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3509,7 +3735,7 @@
         <v>4.5822760263802005</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3559,7 +3785,7 @@
         <v>15.203681980727159</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3609,7 +3835,7 @@
         <v>32.252848518172918</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3659,7 +3885,7 @@
         <v>17.986773749836804</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -3709,7 +3935,7 @@
         <v>540.3368142173257</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -6225,15 +6451,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A5893-199B-2948-9744-2984649A120F}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:25">
       <c r="A1" s="87" t="s">
         <v>55</v>
       </c>
@@ -6282,8 +6508,23 @@
       <c r="P1" s="13">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="S1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="93" t="s">
         <v>3</v>
       </c>
@@ -6333,7 +6574,7 @@
         <v>0.72275360000019573</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:25">
       <c r="A3" s="93" t="s">
         <v>4</v>
       </c>
@@ -6383,7 +6624,7 @@
         <v>0.28927190600082309</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:25">
       <c r="A4" s="93" t="s">
         <v>5</v>
       </c>
@@ -6424,7 +6665,7 @@
         <v>18.0518010800002</v>
       </c>
       <c r="N4" s="7">
-        <v>11.723644704800339</v>
+        <v>11.7236447048003</v>
       </c>
       <c r="O4" s="19">
         <v>14.967189360000241</v>
@@ -6432,8 +6673,26 @@
       <c r="P4" s="7">
         <v>16.094060480000429</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="S4" s="187">
+        <f>MAX(G4:P4)</f>
+        <v>24.620112500000008</v>
+      </c>
+      <c r="T4">
+        <v>2018</v>
+      </c>
+      <c r="V4" s="187">
+        <f>MIN(G4:P4)</f>
+        <v>11.7236447048003</v>
+      </c>
+      <c r="W4">
+        <v>2021</v>
+      </c>
+      <c r="Y4">
+        <f>((P4-G4)/G4)*100</f>
+        <v>14.971384562880333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="93" t="s">
         <v>6</v>
       </c>
@@ -6482,8 +6741,12 @@
       <c r="P5" s="7">
         <v>1.6588076000013829</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y44" si="0">((P5-G5)/G5)*100</f>
+        <v>154.34387385677758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="93" t="s">
         <v>7</v>
       </c>
@@ -6532,8 +6795,12 @@
       <c r="P6" s="7">
         <v>2.0522209000036562</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>57.552174519819367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="93" t="s">
         <v>8</v>
       </c>
@@ -6582,8 +6849,12 @@
       <c r="P7" s="7">
         <v>41.270897960002642</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>16.626066004617964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="93" t="s">
         <v>9</v>
       </c>
@@ -6632,8 +6903,12 @@
       <c r="P8" s="7">
         <v>5.8450723250025884</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>-31.400696472040902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="93" t="s">
         <v>10</v>
       </c>
@@ -6682,8 +6957,12 @@
       <c r="P9" s="7">
         <v>0.135992796</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>294.74266639575035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="93" t="s">
         <v>11</v>
       </c>
@@ -6732,8 +7011,12 @@
       <c r="P10" s="7">
         <v>1.053622950007171</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>-55.091648379052174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="93" t="s">
         <v>12</v>
       </c>
@@ -6782,8 +7065,12 @@
       <c r="P11" s="7">
         <v>5.6542368400002454</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>27.334403972492442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="93" t="s">
         <v>13</v>
       </c>
@@ -6832,8 +7119,12 @@
       <c r="P12" s="7">
         <v>2.406452220003914</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>-27.745563372289979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="93" t="s">
         <v>14</v>
       </c>
@@ -6882,8 +7173,12 @@
       <c r="P13" s="7">
         <v>14.4152065772155</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>26.950451039422262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="93" t="s">
         <v>15</v>
       </c>
@@ -6932,8 +7227,12 @@
       <c r="P14" s="7">
         <v>2.410066595002323</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>-32.14755323089021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="93" t="s">
         <v>16</v>
       </c>
@@ -6982,8 +7281,12 @@
       <c r="P15" s="7">
         <v>1.168351242003286</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>-38.459578438774535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="93" t="s">
         <v>17</v>
       </c>
@@ -7032,8 +7335,12 @@
       <c r="P16" s="7">
         <v>9.5080807800001548</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>-14.67365553009847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="93" t="s">
         <v>18</v>
       </c>
@@ -7082,8 +7389,12 @@
       <c r="P17" s="7">
         <v>8.5479999999999996E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>-94.099781882437398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="93" t="s">
         <v>19</v>
       </c>
@@ -7132,8 +7443,12 @@
       <c r="P18" s="7">
         <v>2.7269163920080839</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>13.202591277549278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="93" t="s">
         <v>20</v>
       </c>
@@ -7182,8 +7497,26 @@
       <c r="P19" s="7">
         <v>1.6218717000137139</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="S19" s="187">
+        <f>MAX(G19:P19)</f>
+        <v>1.975273420018558</v>
+      </c>
+      <c r="T19">
+        <v>2021</v>
+      </c>
+      <c r="V19" s="187">
+        <f>MIN(G19:P19)</f>
+        <v>1.410540299999997</v>
+      </c>
+      <c r="W19">
+        <v>2015</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>-9.6342622659205066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="93" t="s">
         <v>21</v>
       </c>
@@ -7232,8 +7565,12 @@
       <c r="P20" s="7">
         <v>0.40236944200235031</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>-21.952075244699028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="93" t="s">
         <v>22</v>
       </c>
@@ -7282,8 +7619,12 @@
       <c r="P21" s="7">
         <v>12.280845450000919</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>10.357202300362536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="93" t="s">
         <v>23</v>
       </c>
@@ -7332,8 +7673,12 @@
       <c r="P22" s="7">
         <v>0.70467764000007305</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>-7.6690645257308647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="85" t="s">
         <v>56</v>
       </c>
@@ -7382,8 +7727,12 @@
       <c r="P23" s="7">
         <v>5.9612086290031288</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>43.523730460819763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="97" t="s">
         <v>25</v>
       </c>
@@ -7432,8 +7781,12 @@
       <c r="P24" s="25">
         <v>128.38383882427257</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>6.9655410792273065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="93" t="s">
         <v>26</v>
       </c>
@@ -7482,8 +7835,12 @@
       <c r="P25" s="7">
         <v>26.8770442</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>177.45352485609206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="93" t="s">
         <v>27</v>
       </c>
@@ -7532,8 +7889,12 @@
       <c r="P26" s="7">
         <v>45.405696499999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>18.404730481836307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="93" t="s">
         <v>28</v>
       </c>
@@ -7582,8 +7943,12 @@
       <c r="P27" s="7">
         <v>0.64717800000000225</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>-78.822536179124413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="93" t="s">
         <v>29</v>
       </c>
@@ -7632,12 +7997,26 @@
       <c r="P28" s="7">
         <v>107.6580944</v>
       </c>
-      <c r="S28">
-        <f>((G28-P28)/G28)*100</f>
-        <v>14.673884602860293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="S28" s="187">
+        <f>MAX(G28:P28)</f>
+        <v>126.17250169999993</v>
+      </c>
+      <c r="T28">
+        <v>2014</v>
+      </c>
+      <c r="V28" s="187">
+        <f>MIN(G28:P28)</f>
+        <v>61.5944985</v>
+      </c>
+      <c r="W28">
+        <v>2019</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>-14.673884602860293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="93" t="s">
         <v>30</v>
       </c>
@@ -7686,8 +8065,12 @@
       <c r="P29" s="7">
         <v>8.4491595000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>147.20411397927944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="85" t="s">
         <v>31</v>
       </c>
@@ -7736,8 +8119,12 @@
       <c r="P30" s="7">
         <v>0.5975916</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>-89.45364972734761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="97" t="s">
         <v>32</v>
       </c>
@@ -7786,8 +8173,12 @@
       <c r="P31" s="25">
         <v>189.63476420000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>1.7639863832635643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="93" t="s">
         <v>33</v>
       </c>
@@ -7836,8 +8227,12 @@
       <c r="P32" s="7">
         <v>6.9247264999999993</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>-32.050589132394549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="93" t="s">
         <v>34</v>
       </c>
@@ -7886,8 +8281,12 @@
       <c r="P33" s="7">
         <v>21.0084907000453</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>-35.61916695812409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="93" t="s">
         <v>35</v>
       </c>
@@ -7936,8 +8335,26 @@
       <c r="P34" s="7">
         <v>6.456600700002177</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="S34" s="187">
+        <f>MAX(G34:P34)</f>
+        <v>7.0380394999999982</v>
+      </c>
+      <c r="T34">
+        <v>2017</v>
+      </c>
+      <c r="V34" s="187">
+        <f>MIN(G34:P34)</f>
+        <v>2.5836699000002659</v>
+      </c>
+      <c r="W34">
+        <v>2021</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>110.4771316488311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="93" t="s">
         <v>36</v>
       </c>
@@ -7986,8 +8403,26 @@
       <c r="P35" s="7">
         <v>3.3202669000013652</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="S35" s="187">
+        <f>MAX(G35:P35)</f>
+        <v>3.3728020999999972</v>
+      </c>
+      <c r="T35">
+        <v>2014</v>
+      </c>
+      <c r="V35" s="187">
+        <f>MIN(G35:P35)</f>
+        <v>2.8659543700067429</v>
+      </c>
+      <c r="W35">
+        <v>2020</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>-1.5576128821383306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="93" t="s">
         <v>37</v>
       </c>
@@ -8036,8 +8471,12 @@
       <c r="P36" s="7">
         <v>0.76587400000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>256.44593789559917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="93" t="s">
         <v>38</v>
       </c>
@@ -8086,8 +8525,12 @@
       <c r="P37" s="7">
         <v>29.88402172</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>-1.5317014756385778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="93" t="s">
         <v>39</v>
       </c>
@@ -8136,8 +8579,12 @@
       <c r="P38" s="7">
         <v>33.42059950000138</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>-13.357337327614308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="93" t="s">
         <v>40</v>
       </c>
@@ -8186,8 +8633,12 @@
       <c r="P39" s="7">
         <v>0.49520219999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>-19.648877539397297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="93" t="s">
         <v>41</v>
       </c>
@@ -8236,8 +8687,12 @@
       <c r="P40" s="7">
         <v>2.013402900000139</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>-30.353930135478279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="93" t="s">
         <v>42</v>
       </c>
@@ -8286,8 +8741,12 @@
       <c r="P41" s="7">
         <v>16.730223200000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>-15.481763233618715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="85" t="s">
         <v>43</v>
       </c>
@@ -8336,8 +8795,12 @@
       <c r="P42" s="7">
         <v>1.4933754000023991</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>37.811267433509464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="97" t="s">
         <v>44</v>
       </c>
@@ -8386,8 +8849,12 @@
       <c r="P43" s="25">
         <v>122.51278372005275</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="17" thickBot="1">
+      <c r="Y43">
+        <f t="shared" si="0"/>
+        <v>-14.197903804121879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="17" thickBot="1">
       <c r="A44" s="100" t="s">
         <v>45</v>
       </c>
@@ -8435,6 +8902,10 @@
       </c>
       <c r="P44" s="36">
         <v>440.53138674432535</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="0"/>
+        <v>-1.9202848940710597</v>
       </c>
     </row>
   </sheetData>
@@ -12151,7 +12622,7 @@
   <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17154,7 +17625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CBB3C8-6CD7-8142-9B6C-C07F765CBF57}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
